--- a/План.xlsx
+++ b/План.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Graduate work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B93F988-25FA-4675-B634-1A39411C4CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B0479D-1942-4FC1-A2D8-AA561D7C1276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Постановка задачи</t>
   </si>
@@ -106,13 +106,19 @@
   </si>
   <si>
     <t>стр.</t>
+  </si>
+  <si>
+    <t>Внедрение ПК</t>
+  </si>
+  <si>
+    <t>Исследование области</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +128,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -148,12 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -436,31 +450,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N25"/>
+  <dimension ref="B3:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2">
-        <f>SUM(K4:K178)</f>
+      <c r="M3" s="3">
+        <f>SUM(K4:K179)</f>
         <v>22</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -468,7 +485,7 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>2</v>
       </c>
     </row>
@@ -478,150 +495,161 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2</v>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3">
         <v>2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="2">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="2">
+        <v>8</v>
+      </c>
+      <c r="K16" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="2">
+        <v>9</v>
+      </c>
+      <c r="K17" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.5</v>
+        <v>10</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K20" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="2">
+        <v>14</v>
+      </c>
+      <c r="K22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K24" s="3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K35" s="3">
         <v>1</v>
       </c>
     </row>

--- a/План.xlsx
+++ b/План.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Graduate work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ПКС-406\Останин Иван\Graduate-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B0479D-1942-4FC1-A2D8-AA561D7C1276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Постановка задачи</t>
   </si>
@@ -112,12 +111,42 @@
   </si>
   <si>
     <t>Исследование области</t>
+  </si>
+  <si>
+    <t>План внедрения ПК</t>
+  </si>
+  <si>
+    <t>Экономическая часть</t>
+  </si>
+  <si>
+    <t>Охрана труда</t>
+  </si>
+  <si>
+    <t>Список литературы</t>
+  </si>
+  <si>
+    <t>Разработка програмного комплекса</t>
+  </si>
+  <si>
+    <t>Разработка Композитора сюжета</t>
+  </si>
+  <si>
+    <t>Разработка проекта NfModels</t>
+  </si>
+  <si>
+    <t>Разработка Телевизионого штаба</t>
+  </si>
+  <si>
+    <t>Разработка ВИА</t>
+  </si>
+  <si>
+    <t>Проёб внедрения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -169,6 +198,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,11 +481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,19 +495,25 @@
     <col min="3" max="3" width="4.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
     <col min="5" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="4" customWidth="1"/>
     <col min="12" max="12" width="6.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="4.42578125" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="3"/>
+    </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="3">
-        <f>SUM(K4:K179)</f>
-        <v>22</v>
+        <f>SUM(K4:K181)</f>
+        <v>52</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>23</v>
@@ -485,7 +523,7 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>2</v>
       </c>
     </row>
@@ -504,7 +542,7 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <v>2</v>
       </c>
     </row>
@@ -517,7 +555,7 @@
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <v>2</v>
       </c>
     </row>
@@ -525,7 +563,7 @@
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <v>1</v>
       </c>
     </row>
@@ -533,7 +571,7 @@
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <v>1</v>
       </c>
     </row>
@@ -541,7 +579,7 @@
       <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -554,7 +592,7 @@
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <v>2</v>
       </c>
     </row>
@@ -562,7 +600,7 @@
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <v>2</v>
       </c>
     </row>
@@ -570,7 +608,7 @@
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <v>1</v>
       </c>
     </row>
@@ -578,7 +616,7 @@
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
         <v>1</v>
       </c>
     </row>
@@ -586,7 +624,7 @@
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <v>1</v>
       </c>
     </row>
@@ -594,7 +632,7 @@
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -602,7 +640,7 @@
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -615,7 +653,7 @@
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4">
         <v>1</v>
       </c>
     </row>
@@ -623,16 +661,8 @@
       <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2</v>
+      <c r="K23" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -640,17 +670,105 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="3">
-        <v>1</v>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/План.xlsx
+++ b/План.xlsx
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Постановка задачи</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Архитектура программного комплекса</t>
   </si>
@@ -74,9 +71,6 @@
     <t>Extended WPF Toolkit</t>
   </si>
   <si>
-    <t>БД</t>
-  </si>
-  <si>
     <t>Концептуальная модель базы данных</t>
   </si>
   <si>
@@ -86,18 +80,9 @@
     <t>Разработка физической модели базы данных</t>
   </si>
   <si>
-    <t>Введение</t>
-  </si>
-  <si>
-    <t>Теоретическая часть</t>
-  </si>
-  <si>
     <t>Заключение</t>
   </si>
   <si>
-    <t>Практическая часть</t>
-  </si>
-  <si>
     <t>Общие сведения о программном комплексе</t>
   </si>
   <si>
@@ -141,6 +126,30 @@
   </si>
   <si>
     <t>Проёб внедрения</t>
+  </si>
+  <si>
+    <t>Руководство програмиста</t>
+  </si>
+  <si>
+    <t>Руководство оператора</t>
+  </si>
+  <si>
+    <t>Разработка и внедрение програмного комплекса</t>
+  </si>
+  <si>
+    <t>1. Введение</t>
+  </si>
+  <si>
+    <t>2. Технологические аспекты разработки программного комплекса</t>
+  </si>
+  <si>
+    <t>Оганизация хранения информации в базе данных</t>
+  </si>
+  <si>
+    <t>Руководства опертора и програмиста</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -190,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -202,6 +211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N39"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,65 +511,68 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M3" s="3">
-        <f>SUM(K4:K181)</f>
-        <v>52</v>
+        <f>SUM(K4:K183)</f>
+        <v>46.7</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
@@ -567,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
@@ -575,36 +588,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
@@ -625,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -637,47 +650,39 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>13</v>
+      <c r="K21" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K27" s="4">
         <v>2</v>
@@ -685,7 +690,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K28" s="4">
         <v>2</v>
@@ -693,23 +698,23 @@
     </row>
     <row r="29" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K29" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K30" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K31" s="4">
         <v>4</v>
@@ -717,59 +722,87 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K33" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" s="4">
-        <v>1</v>
-      </c>
-    </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="4">
-        <v>2</v>
-      </c>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="K38" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>29</v>
+      <c r="C39" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K39" s="4">
         <v>2</v>
       </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/План.xlsx
+++ b/План.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ПКС-406\Останин Иван\Graduate-work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Graduate work\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BAA9FD-B8D2-4F67-9904-419C1F40FA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-15480" yWindow="1440" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Архитектура программного комплекса</t>
   </si>
@@ -44,9 +45,6 @@
     <t xml:space="preserve">Телевизионный Штаб (ТШ) </t>
   </si>
   <si>
-    <t xml:space="preserve">Виртуальный Интерактивный Агент (ВАИ) </t>
-  </si>
-  <si>
     <t>Использованные технологии, библиотеки и архитектурные шаблоны</t>
   </si>
   <si>
@@ -143,19 +141,22 @@
     <t>2. Технологические аспекты разработки программного комплекса</t>
   </si>
   <si>
-    <t>Оганизация хранения информации в базе данных</t>
-  </si>
-  <si>
     <t>Руководства опертора и програмиста</t>
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виртуальный Интерактивный Агент (ВИА) </t>
+  </si>
+  <si>
+    <t>Организация хранения информации в базе данных</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +212,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -491,16 +494,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
@@ -519,19 +522,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="3">
         <f>SUM(K4:K183)</f>
-        <v>46.7</v>
+        <v>43.2</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="4">
         <v>2</v>
@@ -539,13 +542,13 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -555,179 +558,217 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="4">
         <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K10" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="K13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+      <c r="K16" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+      <c r="K17" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+      <c r="K18" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K19" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="K27" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K29" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K30" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K31" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="4">
         <v>1</v>
@@ -735,7 +776,7 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K35" s="4">
         <v>1</v>
@@ -746,13 +787,13 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K38" s="4">
         <v>5</v>
@@ -760,7 +801,7 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K39" s="4">
         <v>2</v>
@@ -768,7 +809,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K40" s="4">
         <v>2</v>
@@ -776,7 +817,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K41" s="4">
         <v>3</v>
@@ -784,7 +825,7 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K42" s="4">
         <v>1</v>
@@ -792,7 +833,7 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K43" s="4">
         <v>2</v>

--- a/План.xlsx
+++ b/План.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Graduate work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BAA9FD-B8D2-4F67-9904-419C1F40FA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556F9F57-512C-435D-BC5A-E9A9D4D79FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="1440" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Архитектура программного комплекса</t>
   </si>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +722,9 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
       </c>

--- a/План.xlsx
+++ b/План.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Graduate work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556F9F57-512C-435D-BC5A-E9A9D4D79FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8557D5B5-DC04-43C0-A2F1-AA351E2D2167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Архитектура программного комплекса</t>
   </si>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +539,10 @@
       <c r="K4" s="4">
         <v>2</v>
       </c>
+      <c r="M4" s="3">
+        <f>SUMIF(A4:A200,"+",K4:K200)</f>
+        <v>12.2</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -733,6 +737,9 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>26</v>
       </c>

--- a/План.xlsx
+++ b/План.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Graduate work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ПКС-406\Останин Иван\Graduate-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8557D5B5-DC04-43C0-A2F1-AA351E2D2167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Архитектура программного комплекса</t>
   </si>
@@ -156,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +540,7 @@
       </c>
       <c r="M4" s="3">
         <f>SUMIF(A4:A200,"+",K4:K200)</f>
-        <v>12.2</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -748,6 +747,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
